--- a/biology/Botanique/Galestro/Galestro.xlsx
+++ b/biology/Botanique/Galestro/Galestro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le galestro  désigne un schiste argileux, facilement friable, très commun dans l'Apennin tosco-émilien, le mot est italien[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le galestro  désigne un schiste argileux, facilement friable, très commun dans l'Apennin tosco-émilien, le mot est italien. 
 Il fournit par altération une argile utilisée par les potiers à Impruneta depuis des siècles pour la fabrication des poteries locales, en particulier, des orci (pluriel d'orcio), dites de galestro.
 Galestro est aussi l'appellation d'un vin blanc, légèrement mousseux, produit avec du raisin cultivé sur les terrains « galestrueux » de Toscane.</t>
         </is>
